--- a/AppointmentResourceMapping.xlsx
+++ b/AppointmentResourceMapping.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b740a18039193a3b/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b740a18039193a3b/A2 Programmieren/AhYesAppointments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="110" documentId="8_{2B486ADF-8647-45EB-9355-9A423FAF9C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72AAF336-D037-456D-8EBC-3DF3FD5C23CD}"/>
+  <xr:revisionPtr revIDLastSave="124" documentId="8_{2B486ADF-8647-45EB-9355-9A423FAF9C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36BBE29B-A88D-4DE8-8A4A-A5D3F0628DA3}"/>
   <bookViews>
-    <workbookView xWindow="38295" yWindow="0" windowWidth="38610" windowHeight="20985" xr2:uid="{4630760D-7D89-4C4C-AB07-2BC2D8589D9C}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="38610" windowHeight="20985" xr2:uid="{4630760D-7D89-4C4C-AB07-2BC2D8589D9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,13 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
-  <si>
-    <t>Block 5min</t>
-  </si>
-  <si>
-    <t>Grouping</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>Mitarbeiter</t>
   </si>
@@ -93,6 +87,24 @@
   </si>
   <si>
     <t>Gone</t>
+  </si>
+  <si>
+    <t>Ein Termin ist nicht tages übergreifend</t>
+  </si>
+  <si>
+    <t>Leistung immer in buchungs reinfolge (FeedBack möglich)</t>
+  </si>
+  <si>
+    <t>Tendenziell keine Leer zeiten / So wenig wie möglich (FeedBack)</t>
+  </si>
+  <si>
+    <t>Minimaler block 5min</t>
+  </si>
+  <si>
+    <t>Optimale Termine sind locked</t>
+  </si>
+  <si>
+    <t>Es wird immer eine Optimale einordnung beforzugt</t>
   </si>
 </sst>
 </file>
@@ -753,17 +765,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -806,9 +815,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -832,7 +840,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -900,6 +908,7 @@
     <xf numFmtId="0" fontId="0" fillId="59" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="60" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="60" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1220,10 +1229,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FC58809-F2F6-456B-8423-7759BD08EF82}">
-  <dimension ref="D2:AI56"/>
+  <dimension ref="B2:AF56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1231,1076 +1240,914 @@
     <col min="8" max="21" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:31" x14ac:dyDescent="0.25">
       <c r="W2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y2" s="37">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>7</v>
+      </c>
+      <c r="AE2" s="35">
         <v>8</v>
       </c>
-      <c r="Y2" s="41">
+    </row>
+    <row r="3" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="124"/>
+      <c r="H3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X3" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="4">
+        <v>3</v>
+      </c>
+      <c r="AB3" s="5">
+        <v>4</v>
+      </c>
+      <c r="AD3" s="36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="X4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
         <v>1</v>
       </c>
-      <c r="AA2" s="4">
+      <c r="I5" s="61">
+        <v>2</v>
+      </c>
+      <c r="J5" s="8">
+        <v>3</v>
+      </c>
+      <c r="K5" s="9">
+        <v>4</v>
+      </c>
+      <c r="L5" s="10">
         <v>5</v>
       </c>
-      <c r="AC2" s="6">
+      <c r="M5" s="61">
+        <v>2</v>
+      </c>
+      <c r="N5" s="8">
+        <v>3</v>
+      </c>
+      <c r="O5" s="9">
+        <v>4</v>
+      </c>
+      <c r="P5" s="11">
         <v>7</v>
       </c>
-      <c r="AE2" s="38">
+      <c r="Q5" s="65">
+        <v>3</v>
+      </c>
+      <c r="R5" s="9">
+        <v>4</v>
+      </c>
+      <c r="S5" s="12">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="4:35" x14ac:dyDescent="0.25">
-      <c r="D3" s="3" t="s">
+      <c r="T5" s="61">
+        <v>2</v>
+      </c>
+      <c r="U5" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="14"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="62"/>
+      <c r="U6" s="22"/>
+    </row>
+    <row r="7" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="H7" s="23"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="67"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="63"/>
+      <c r="U7" s="31"/>
+      <c r="W7" t="s">
+        <v>7</v>
+      </c>
+      <c r="X7" s="50"/>
+      <c r="Y7" s="38">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="24">
+        <v>3</v>
+      </c>
+      <c r="AA7" s="42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="23"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="63"/>
+      <c r="U8" s="31"/>
+    </row>
+    <row r="9" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="23"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="67"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="63"/>
+      <c r="U9" s="31"/>
+      <c r="W9" t="s">
+        <v>8</v>
+      </c>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="109">
+        <v>4</v>
+      </c>
+      <c r="Z9" s="40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="H10" s="23"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="67"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="63"/>
+      <c r="U10" s="31"/>
+    </row>
+    <row r="11" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="H11" s="23"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="67"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="63"/>
+      <c r="U11" s="31"/>
+      <c r="W11" t="s">
+        <v>9</v>
+      </c>
+      <c r="X11" s="45"/>
+      <c r="Y11" s="41">
+        <v>3</v>
+      </c>
+      <c r="Z11" s="42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="H12" s="23"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="67"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="63"/>
+      <c r="U12" s="31"/>
+    </row>
+    <row r="13" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="H13" s="23"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="67"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="63"/>
+      <c r="U13" s="31"/>
+      <c r="W13" t="s">
+        <v>10</v>
+      </c>
+      <c r="X13" s="46"/>
+      <c r="Y13" s="38">
+        <v>2</v>
+      </c>
+      <c r="Z13" s="39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="H14" s="23"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="67"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="63"/>
+      <c r="U14" s="31"/>
+    </row>
+    <row r="15" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="H15" s="23"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="67"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="63"/>
+      <c r="U15" s="31"/>
+      <c r="W15" t="s">
+        <v>11</v>
+      </c>
+      <c r="X15" s="47"/>
+      <c r="Y15" s="43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="H16" s="23"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="67"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="63"/>
+      <c r="U16" s="31"/>
+    </row>
+    <row r="17" spans="8:32" x14ac:dyDescent="0.25">
+      <c r="H17" s="23"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="67"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="63"/>
+      <c r="U17" s="31"/>
+      <c r="W17" t="s">
+        <v>12</v>
+      </c>
+      <c r="X17" s="48"/>
+      <c r="Y17" s="44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="8:32" x14ac:dyDescent="0.25">
+      <c r="H18" s="23"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="67"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="63"/>
+      <c r="U18" s="31"/>
+    </row>
+    <row r="19" spans="8:32" x14ac:dyDescent="0.25">
+      <c r="H19" s="23"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="67"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="63"/>
+      <c r="U19" s="31"/>
+    </row>
+    <row r="20" spans="8:32" x14ac:dyDescent="0.25">
+      <c r="H20" s="23"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="63"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="67"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="63"/>
+      <c r="U20" s="31"/>
+    </row>
+    <row r="21" spans="8:32" x14ac:dyDescent="0.25">
+      <c r="H21" s="23"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="63"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="67"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="63"/>
+      <c r="U21" s="31"/>
+    </row>
+    <row r="22" spans="8:32" x14ac:dyDescent="0.25">
+      <c r="H22" s="23"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="63"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="67"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="63"/>
+      <c r="U22" s="31"/>
+    </row>
+    <row r="23" spans="8:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H23" s="51"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="57"/>
+      <c r="Q23" s="68"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="58"/>
+      <c r="T23" s="64"/>
+      <c r="U23" s="59"/>
+    </row>
+    <row r="24" spans="8:32" x14ac:dyDescent="0.25">
+      <c r="K24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="AD24" s="32"/>
+    </row>
+    <row r="25" spans="8:32" x14ac:dyDescent="0.25">
+      <c r="K25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="X25" t="s">
         <v>1</v>
       </c>
-      <c r="H3" t="s">
+      <c r="Z25" t="s">
         <v>2</v>
       </c>
-      <c r="L3" t="s">
-        <v>2</v>
-      </c>
-      <c r="P3" t="s">
-        <v>2</v>
-      </c>
-      <c r="S3" t="s">
-        <v>2</v>
-      </c>
-      <c r="W3" t="s">
-        <v>7</v>
-      </c>
-      <c r="X3" s="9">
-        <v>2</v>
-      </c>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="7">
+      <c r="AB25" t="s">
         <v>3</v>
       </c>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="8">
+      <c r="AD25" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="39">
-        <v>9</v>
-      </c>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="1"/>
-    </row>
-    <row r="4" spans="4:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="X4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD4" t="s">
+      <c r="AF25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="8:32" x14ac:dyDescent="0.25">
+      <c r="K26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="X26" s="69"/>
+      <c r="Z26" s="97"/>
+      <c r="AB26" s="72"/>
+      <c r="AD26" s="117"/>
+      <c r="AF26" s="76"/>
+    </row>
+    <row r="27" spans="8:32" x14ac:dyDescent="0.25">
+      <c r="K27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="X27" s="69"/>
+      <c r="Z27" s="97"/>
+      <c r="AB27" s="72"/>
+      <c r="AD27" s="117"/>
+      <c r="AF27" s="76"/>
+    </row>
+    <row r="28" spans="8:32" x14ac:dyDescent="0.25">
+      <c r="K28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="X28" s="69"/>
+      <c r="Z28" s="71"/>
+      <c r="AB28" s="72"/>
+      <c r="AD28" s="117"/>
+      <c r="AF28" s="76"/>
+    </row>
+    <row r="29" spans="8:32" x14ac:dyDescent="0.25">
+      <c r="K29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="X29" s="69"/>
+      <c r="Z29" s="71"/>
+      <c r="AB29" s="73"/>
+      <c r="AD29" s="117"/>
+      <c r="AF29" s="76"/>
+    </row>
+    <row r="30" spans="8:32" x14ac:dyDescent="0.25">
+      <c r="K30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="X30" s="69"/>
+      <c r="Z30" s="71"/>
+      <c r="AB30" s="73"/>
+      <c r="AD30" s="33"/>
+      <c r="AF30" s="76"/>
+    </row>
+    <row r="31" spans="8:32" x14ac:dyDescent="0.25">
+      <c r="K31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="X31" s="70"/>
+      <c r="Z31" s="71"/>
+      <c r="AB31" s="74"/>
+      <c r="AD31" s="33"/>
+    </row>
+    <row r="32" spans="8:32" x14ac:dyDescent="0.25">
+      <c r="K32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="X32" s="70"/>
+      <c r="Z32" s="71"/>
+      <c r="AB32" s="74"/>
+      <c r="AD32" s="33"/>
+    </row>
+    <row r="33" spans="8:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K33" s="2"/>
+      <c r="L33" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="4:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H5" s="10">
-        <v>1</v>
-      </c>
-      <c r="I5" s="65">
-        <v>2</v>
-      </c>
-      <c r="J5" s="11">
-        <v>3</v>
-      </c>
-      <c r="K5" s="12">
-        <v>4</v>
-      </c>
-      <c r="L5" s="13">
-        <v>5</v>
-      </c>
-      <c r="M5" s="65">
-        <v>2</v>
-      </c>
-      <c r="N5" s="11">
-        <v>3</v>
-      </c>
-      <c r="O5" s="12">
-        <v>4</v>
-      </c>
-      <c r="P5" s="14">
-        <v>7</v>
-      </c>
-      <c r="Q5" s="69">
-        <v>3</v>
-      </c>
-      <c r="R5" s="12">
-        <v>4</v>
-      </c>
-      <c r="S5" s="15">
-        <v>8</v>
-      </c>
-      <c r="T5" s="65">
-        <v>2</v>
-      </c>
-      <c r="U5" s="16">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="4:35" x14ac:dyDescent="0.25">
-      <c r="H6" s="17"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="70"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="66"/>
-      <c r="U6" s="25"/>
-    </row>
-    <row r="7" spans="4:35" x14ac:dyDescent="0.25">
-      <c r="H7" s="26"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="67"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="67"/>
-      <c r="U7" s="34"/>
-      <c r="W7" t="s">
-        <v>9</v>
-      </c>
-      <c r="X7" s="54"/>
-      <c r="Y7" s="42">
-        <v>2</v>
-      </c>
-      <c r="Z7" s="27">
-        <v>3</v>
-      </c>
-      <c r="AA7" s="46">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="4:35" x14ac:dyDescent="0.25">
-      <c r="H8" s="26"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="71"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="67"/>
-      <c r="U8" s="34"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="40"/>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="40"/>
-    </row>
-    <row r="9" spans="4:35" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="26"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="67"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="71"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="67"/>
-      <c r="U9" s="34"/>
-      <c r="W9" t="s">
-        <v>10</v>
-      </c>
-      <c r="X9" s="53"/>
-      <c r="Y9" s="113">
-        <v>4</v>
-      </c>
-      <c r="Z9" s="44">
-        <v>9</v>
-      </c>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
-    </row>
-    <row r="10" spans="4:35" x14ac:dyDescent="0.25">
-      <c r="H10" s="26"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="67"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="71"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="67"/>
-      <c r="U10" s="34"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="40"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="40"/>
-    </row>
-    <row r="11" spans="4:35" x14ac:dyDescent="0.25">
-      <c r="H11" s="26"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="71"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="67"/>
-      <c r="U11" s="34"/>
-      <c r="W11" t="s">
-        <v>11</v>
-      </c>
-      <c r="X11" s="49"/>
-      <c r="Y11" s="45">
-        <v>3</v>
-      </c>
-      <c r="Z11" s="46">
-        <v>4</v>
-      </c>
-      <c r="AA11" s="2"/>
-      <c r="AB11" s="40"/>
-    </row>
-    <row r="12" spans="4:35" x14ac:dyDescent="0.25">
-      <c r="H12" s="26"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="71"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="67"/>
-      <c r="U12" s="34"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="40"/>
-      <c r="AA12" s="40"/>
-      <c r="AB12" s="40"/>
-    </row>
-    <row r="13" spans="4:35" x14ac:dyDescent="0.25">
-      <c r="H13" s="26"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="71"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="67"/>
-      <c r="U13" s="34"/>
-      <c r="W13" t="s">
-        <v>12</v>
-      </c>
-      <c r="X13" s="50"/>
-      <c r="Y13" s="42">
-        <v>2</v>
-      </c>
-      <c r="Z13" s="43">
-        <v>3</v>
-      </c>
-      <c r="AA13" s="40"/>
-      <c r="AB13" s="40"/>
-    </row>
-    <row r="14" spans="4:35" x14ac:dyDescent="0.25">
-      <c r="H14" s="26"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="71"/>
-      <c r="R14" s="31"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="67"/>
-      <c r="U14" s="34"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="40"/>
-      <c r="AA14" s="40"/>
-      <c r="AB14" s="40"/>
-    </row>
-    <row r="15" spans="4:35" x14ac:dyDescent="0.25">
-      <c r="H15" s="26"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="71"/>
-      <c r="R15" s="31"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="67"/>
-      <c r="U15" s="34"/>
-      <c r="W15" t="s">
-        <v>13</v>
-      </c>
-      <c r="X15" s="51"/>
-      <c r="Y15" s="47">
-        <v>9</v>
-      </c>
-      <c r="Z15" s="40"/>
-      <c r="AA15" s="40"/>
-      <c r="AB15" s="40"/>
-    </row>
-    <row r="16" spans="4:35" x14ac:dyDescent="0.25">
-      <c r="H16" s="26"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="71"/>
-      <c r="R16" s="31"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="67"/>
-      <c r="U16" s="34"/>
-    </row>
-    <row r="17" spans="8:32" x14ac:dyDescent="0.25">
-      <c r="H17" s="26"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="67"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="71"/>
-      <c r="R17" s="31"/>
-      <c r="S17" s="33"/>
-      <c r="T17" s="67"/>
-      <c r="U17" s="34"/>
-      <c r="W17" t="s">
-        <v>14</v>
-      </c>
-      <c r="X17" s="52"/>
-      <c r="Y17" s="48">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="8:32" x14ac:dyDescent="0.25">
-      <c r="H18" s="26"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="71"/>
-      <c r="R18" s="31"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="67"/>
-      <c r="U18" s="34"/>
-    </row>
-    <row r="19" spans="8:32" x14ac:dyDescent="0.25">
-      <c r="H19" s="26"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="71"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="33"/>
-      <c r="T19" s="67"/>
-      <c r="U19" s="34"/>
-    </row>
-    <row r="20" spans="8:32" x14ac:dyDescent="0.25">
-      <c r="H20" s="26"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="67"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="71"/>
-      <c r="R20" s="31"/>
-      <c r="S20" s="33"/>
-      <c r="T20" s="67"/>
-      <c r="U20" s="34"/>
-    </row>
-    <row r="21" spans="8:32" x14ac:dyDescent="0.25">
-      <c r="H21" s="26"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="67"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="71"/>
-      <c r="R21" s="31"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="67"/>
-      <c r="U21" s="34"/>
-    </row>
-    <row r="22" spans="8:32" x14ac:dyDescent="0.25">
-      <c r="H22" s="26"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="71"/>
-      <c r="R22" s="31"/>
-      <c r="S22" s="33"/>
-      <c r="T22" s="67"/>
-      <c r="U22" s="34"/>
-    </row>
-    <row r="23" spans="8:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H23" s="55"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="68"/>
-      <c r="N23" s="59"/>
-      <c r="O23" s="60"/>
-      <c r="P23" s="61"/>
-      <c r="Q23" s="72"/>
-      <c r="R23" s="60"/>
-      <c r="S23" s="62"/>
-      <c r="T23" s="68"/>
-      <c r="U23" s="63"/>
-    </row>
-    <row r="24" spans="8:32" x14ac:dyDescent="0.25">
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="AD24" s="35"/>
-    </row>
-    <row r="25" spans="8:32" x14ac:dyDescent="0.25">
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
-      <c r="X25" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD25" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="8:32" x14ac:dyDescent="0.25">
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="X26" s="73"/>
-      <c r="Z26" s="101"/>
-      <c r="AB26" s="76"/>
-      <c r="AD26" s="121"/>
-      <c r="AF26" s="80"/>
-    </row>
-    <row r="27" spans="8:32" x14ac:dyDescent="0.25">
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
-      <c r="X27" s="73"/>
-      <c r="Z27" s="101"/>
-      <c r="AB27" s="76"/>
-      <c r="AD27" s="121"/>
-      <c r="AF27" s="80"/>
-    </row>
-    <row r="28" spans="8:32" x14ac:dyDescent="0.25">
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-      <c r="X28" s="73"/>
-      <c r="Z28" s="75"/>
-      <c r="AB28" s="76"/>
-      <c r="AD28" s="121"/>
-      <c r="AF28" s="80"/>
-    </row>
-    <row r="29" spans="8:32" x14ac:dyDescent="0.25">
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
-      <c r="X29" s="73"/>
-      <c r="Z29" s="75"/>
-      <c r="AB29" s="77"/>
-      <c r="AD29" s="121"/>
-      <c r="AF29" s="80"/>
-    </row>
-    <row r="30" spans="8:32" x14ac:dyDescent="0.25">
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
-      <c r="X30" s="73"/>
-      <c r="Z30" s="75"/>
-      <c r="AB30" s="77"/>
-      <c r="AD30" s="36"/>
-      <c r="AF30" s="80"/>
-    </row>
-    <row r="31" spans="8:32" x14ac:dyDescent="0.25">
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
-      <c r="X31" s="74"/>
-      <c r="Z31" s="75"/>
-      <c r="AB31" s="78"/>
-      <c r="AD31" s="36"/>
-    </row>
-    <row r="32" spans="8:32" x14ac:dyDescent="0.25">
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="2"/>
-      <c r="X32" s="74"/>
-      <c r="Z32" s="75"/>
-      <c r="AB32" s="78"/>
-      <c r="AD32" s="36"/>
-    </row>
-    <row r="33" spans="8:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M33" s="64"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
-      <c r="X33" s="74"/>
-      <c r="Z33" s="75"/>
-      <c r="AB33" s="79"/>
-      <c r="AD33" s="37"/>
+      <c r="M33" s="60"/>
+      <c r="N33" s="2"/>
+      <c r="X33" s="70"/>
+      <c r="Z33" s="71"/>
+      <c r="AB33" s="75"/>
+      <c r="AD33" s="34"/>
     </row>
     <row r="34" spans="8:30" x14ac:dyDescent="0.25">
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="Z34" s="75"/>
-      <c r="AB34" s="79"/>
+      <c r="K34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="Z34" s="71"/>
+      <c r="AB34" s="75"/>
     </row>
     <row r="35" spans="8:30" x14ac:dyDescent="0.25">
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
-      <c r="Z35" s="75"/>
+      <c r="K35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="Z35" s="71"/>
     </row>
     <row r="37" spans="8:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="8:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H38" s="10">
+      <c r="H38" s="7">
         <v>1</v>
       </c>
-      <c r="I38" s="65">
+      <c r="I38" s="61">
         <v>2</v>
       </c>
-      <c r="J38" s="11">
+      <c r="J38" s="8">
         <v>3</v>
       </c>
-      <c r="K38" s="12">
+      <c r="K38" s="9">
         <v>4</v>
       </c>
-      <c r="L38" s="13">
+      <c r="L38" s="10">
         <v>5</v>
       </c>
-      <c r="M38" s="65">
+      <c r="M38" s="61">
         <v>2</v>
       </c>
-      <c r="N38" s="11">
+      <c r="N38" s="8">
         <v>3</v>
       </c>
-      <c r="O38" s="12">
+      <c r="O38" s="9">
         <v>4</v>
       </c>
-      <c r="P38" s="14">
+      <c r="P38" s="11">
         <v>7</v>
       </c>
-      <c r="Q38" s="69">
+      <c r="Q38" s="65">
         <v>3</v>
       </c>
-      <c r="R38" s="12">
+      <c r="R38" s="9">
         <v>4</v>
       </c>
-      <c r="S38" s="15">
+      <c r="S38" s="12">
         <v>8</v>
       </c>
-      <c r="T38" s="65">
+      <c r="T38" s="61">
         <v>2</v>
       </c>
-      <c r="U38" s="16">
+      <c r="U38" s="13">
         <v>9</v>
       </c>
     </row>
     <row r="39" spans="8:30" x14ac:dyDescent="0.25">
-      <c r="H39" s="81"/>
-      <c r="I39" s="82"/>
-      <c r="J39" s="83"/>
-      <c r="K39" s="84"/>
-      <c r="L39" s="126"/>
-      <c r="M39" s="92"/>
-      <c r="N39" s="97"/>
-      <c r="O39" s="98"/>
-      <c r="P39" s="23"/>
-      <c r="Q39" s="117"/>
-      <c r="R39" s="118"/>
-      <c r="S39" s="24"/>
-      <c r="T39" s="92"/>
-      <c r="U39" s="25"/>
+      <c r="H39" s="77"/>
+      <c r="I39" s="78"/>
+      <c r="J39" s="79"/>
+      <c r="K39" s="80"/>
+      <c r="L39" s="122"/>
+      <c r="M39" s="88"/>
+      <c r="N39" s="93"/>
+      <c r="O39" s="94"/>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="113"/>
+      <c r="R39" s="114"/>
+      <c r="S39" s="21"/>
+      <c r="T39" s="88"/>
+      <c r="U39" s="22"/>
     </row>
     <row r="40" spans="8:30" x14ac:dyDescent="0.25">
-      <c r="H40" s="85"/>
-      <c r="I40" s="86"/>
-      <c r="J40" s="87"/>
-      <c r="K40" s="88"/>
-      <c r="L40" s="127"/>
-      <c r="M40" s="93"/>
-      <c r="N40" s="99"/>
-      <c r="O40" s="100"/>
-      <c r="P40" s="32"/>
-      <c r="Q40" s="96"/>
-      <c r="R40" s="119"/>
-      <c r="S40" s="33"/>
-      <c r="T40" s="93"/>
-      <c r="U40" s="34"/>
+      <c r="H40" s="81"/>
+      <c r="I40" s="82"/>
+      <c r="J40" s="83"/>
+      <c r="K40" s="84"/>
+      <c r="L40" s="123"/>
+      <c r="M40" s="89"/>
+      <c r="N40" s="95"/>
+      <c r="O40" s="96"/>
+      <c r="P40" s="29"/>
+      <c r="Q40" s="92"/>
+      <c r="R40" s="115"/>
+      <c r="S40" s="30"/>
+      <c r="T40" s="89"/>
+      <c r="U40" s="31"/>
     </row>
     <row r="41" spans="8:30" x14ac:dyDescent="0.25">
-      <c r="H41" s="85"/>
-      <c r="I41" s="86"/>
-      <c r="J41" s="87"/>
-      <c r="K41" s="88"/>
-      <c r="L41" s="125"/>
-      <c r="M41" s="93"/>
-      <c r="N41" s="94"/>
-      <c r="O41" s="95"/>
-      <c r="P41" s="32"/>
-      <c r="Q41" s="96"/>
-      <c r="R41" s="31"/>
-      <c r="S41" s="33"/>
-      <c r="T41" s="93"/>
-      <c r="U41" s="34"/>
+      <c r="H41" s="81"/>
+      <c r="I41" s="82"/>
+      <c r="J41" s="83"/>
+      <c r="K41" s="84"/>
+      <c r="L41" s="121"/>
+      <c r="M41" s="89"/>
+      <c r="N41" s="90"/>
+      <c r="O41" s="91"/>
+      <c r="P41" s="29"/>
+      <c r="Q41" s="92"/>
+      <c r="R41" s="28"/>
+      <c r="S41" s="30"/>
+      <c r="T41" s="89"/>
+      <c r="U41" s="31"/>
     </row>
     <row r="42" spans="8:30" x14ac:dyDescent="0.25">
-      <c r="H42" s="85"/>
-      <c r="I42" s="86"/>
-      <c r="J42" s="87"/>
-      <c r="K42" s="88"/>
-      <c r="L42" s="125"/>
-      <c r="M42" s="93"/>
-      <c r="N42" s="94"/>
-      <c r="O42" s="95"/>
-      <c r="P42" s="32"/>
-      <c r="Q42" s="96"/>
-      <c r="R42" s="31"/>
-      <c r="S42" s="33"/>
-      <c r="T42" s="93"/>
-      <c r="U42" s="34"/>
+      <c r="H42" s="81"/>
+      <c r="I42" s="82"/>
+      <c r="J42" s="83"/>
+      <c r="K42" s="84"/>
+      <c r="L42" s="121"/>
+      <c r="M42" s="89"/>
+      <c r="N42" s="90"/>
+      <c r="O42" s="91"/>
+      <c r="P42" s="29"/>
+      <c r="Q42" s="92"/>
+      <c r="R42" s="28"/>
+      <c r="S42" s="30"/>
+      <c r="T42" s="89"/>
+      <c r="U42" s="31"/>
     </row>
     <row r="43" spans="8:30" x14ac:dyDescent="0.25">
-      <c r="H43" s="85"/>
-      <c r="I43" s="86"/>
-      <c r="J43" s="87"/>
-      <c r="K43" s="88"/>
-      <c r="L43" s="125"/>
-      <c r="M43" s="93"/>
-      <c r="N43" s="94"/>
-      <c r="O43" s="95"/>
-      <c r="P43" s="32"/>
-      <c r="Q43" s="96"/>
-      <c r="R43" s="31"/>
-      <c r="S43" s="33"/>
-      <c r="T43" s="93"/>
-      <c r="U43" s="34"/>
+      <c r="H43" s="81"/>
+      <c r="I43" s="82"/>
+      <c r="J43" s="83"/>
+      <c r="K43" s="84"/>
+      <c r="L43" s="121"/>
+      <c r="M43" s="89"/>
+      <c r="N43" s="90"/>
+      <c r="O43" s="91"/>
+      <c r="P43" s="29"/>
+      <c r="Q43" s="92"/>
+      <c r="R43" s="28"/>
+      <c r="S43" s="30"/>
+      <c r="T43" s="89"/>
+      <c r="U43" s="31"/>
     </row>
     <row r="44" spans="8:30" x14ac:dyDescent="0.25">
-      <c r="H44" s="89"/>
-      <c r="I44" s="90"/>
-      <c r="J44" s="91"/>
-      <c r="K44" s="112"/>
-      <c r="L44" s="125"/>
-      <c r="M44" s="93"/>
-      <c r="N44" s="94"/>
-      <c r="O44" s="95"/>
-      <c r="P44" s="32"/>
-      <c r="Q44" s="96"/>
-      <c r="R44" s="31"/>
-      <c r="S44" s="33"/>
-      <c r="T44" s="93"/>
-      <c r="U44" s="34"/>
+      <c r="H44" s="85"/>
+      <c r="I44" s="86"/>
+      <c r="J44" s="87"/>
+      <c r="K44" s="108"/>
+      <c r="L44" s="121"/>
+      <c r="M44" s="89"/>
+      <c r="N44" s="90"/>
+      <c r="O44" s="91"/>
+      <c r="P44" s="29"/>
+      <c r="Q44" s="92"/>
+      <c r="R44" s="28"/>
+      <c r="S44" s="30"/>
+      <c r="T44" s="89"/>
+      <c r="U44" s="31"/>
     </row>
     <row r="45" spans="8:30" x14ac:dyDescent="0.25">
-      <c r="H45" s="89"/>
-      <c r="I45" s="90"/>
-      <c r="J45" s="91"/>
-      <c r="K45" s="112"/>
-      <c r="L45" s="125"/>
-      <c r="M45" s="93"/>
-      <c r="N45" s="94"/>
-      <c r="O45" s="95"/>
-      <c r="P45" s="32"/>
-      <c r="Q45" s="96"/>
-      <c r="R45" s="31"/>
-      <c r="S45" s="33"/>
-      <c r="T45" s="93"/>
-      <c r="U45" s="34"/>
+      <c r="H45" s="85"/>
+      <c r="I45" s="86"/>
+      <c r="J45" s="87"/>
+      <c r="K45" s="108"/>
+      <c r="L45" s="121"/>
+      <c r="M45" s="89"/>
+      <c r="N45" s="90"/>
+      <c r="O45" s="91"/>
+      <c r="P45" s="29"/>
+      <c r="Q45" s="92"/>
+      <c r="R45" s="28"/>
+      <c r="S45" s="30"/>
+      <c r="T45" s="89"/>
+      <c r="U45" s="31"/>
     </row>
     <row r="46" spans="8:30" x14ac:dyDescent="0.25">
-      <c r="H46" s="89"/>
-      <c r="I46" s="90"/>
-      <c r="J46" s="91"/>
-      <c r="K46" s="112"/>
-      <c r="L46" s="125"/>
-      <c r="M46" s="93"/>
-      <c r="N46" s="94"/>
-      <c r="O46" s="95"/>
-      <c r="P46" s="32"/>
-      <c r="Q46" s="96"/>
-      <c r="R46" s="31"/>
-      <c r="S46" s="33"/>
-      <c r="T46" s="93"/>
-      <c r="U46" s="34"/>
+      <c r="H46" s="85"/>
+      <c r="I46" s="86"/>
+      <c r="J46" s="87"/>
+      <c r="K46" s="108"/>
+      <c r="L46" s="121"/>
+      <c r="M46" s="89"/>
+      <c r="N46" s="90"/>
+      <c r="O46" s="91"/>
+      <c r="P46" s="29"/>
+      <c r="Q46" s="92"/>
+      <c r="R46" s="28"/>
+      <c r="S46" s="30"/>
+      <c r="T46" s="89"/>
+      <c r="U46" s="31"/>
     </row>
     <row r="47" spans="8:30" x14ac:dyDescent="0.25">
-      <c r="H47" s="102"/>
-      <c r="I47" s="103"/>
-      <c r="J47" s="104"/>
-      <c r="K47" s="105"/>
-      <c r="L47" s="125"/>
-      <c r="M47" s="120"/>
-      <c r="N47" s="94"/>
-      <c r="O47" s="95"/>
-      <c r="P47" s="32"/>
-      <c r="Q47" s="96"/>
-      <c r="R47" s="31"/>
-      <c r="S47" s="33"/>
-      <c r="T47" s="120"/>
-      <c r="U47" s="34"/>
+      <c r="H47" s="98"/>
+      <c r="I47" s="99"/>
+      <c r="J47" s="100"/>
+      <c r="K47" s="101"/>
+      <c r="L47" s="121"/>
+      <c r="M47" s="116"/>
+      <c r="N47" s="90"/>
+      <c r="O47" s="91"/>
+      <c r="P47" s="29"/>
+      <c r="Q47" s="92"/>
+      <c r="R47" s="28"/>
+      <c r="S47" s="30"/>
+      <c r="T47" s="116"/>
+      <c r="U47" s="31"/>
     </row>
     <row r="48" spans="8:30" x14ac:dyDescent="0.25">
-      <c r="H48" s="102"/>
-      <c r="I48" s="103"/>
-      <c r="J48" s="104"/>
-      <c r="K48" s="105"/>
-      <c r="L48" s="125"/>
-      <c r="M48" s="120"/>
-      <c r="N48" s="94"/>
-      <c r="O48" s="95"/>
-      <c r="P48" s="32"/>
-      <c r="Q48" s="96"/>
-      <c r="R48" s="31"/>
-      <c r="S48" s="33"/>
-      <c r="T48" s="120"/>
-      <c r="U48" s="34"/>
+      <c r="H48" s="98"/>
+      <c r="I48" s="99"/>
+      <c r="J48" s="100"/>
+      <c r="K48" s="101"/>
+      <c r="L48" s="121"/>
+      <c r="M48" s="116"/>
+      <c r="N48" s="90"/>
+      <c r="O48" s="91"/>
+      <c r="P48" s="29"/>
+      <c r="Q48" s="92"/>
+      <c r="R48" s="28"/>
+      <c r="S48" s="30"/>
+      <c r="T48" s="116"/>
+      <c r="U48" s="31"/>
     </row>
     <row r="49" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H49" s="102"/>
-      <c r="I49" s="103"/>
-      <c r="J49" s="104"/>
-      <c r="K49" s="105"/>
-      <c r="L49" s="122"/>
-      <c r="M49" s="120"/>
-      <c r="N49" s="123"/>
-      <c r="O49" s="124"/>
-      <c r="P49" s="32"/>
-      <c r="Q49" s="71"/>
-      <c r="R49" s="31"/>
-      <c r="S49" s="33"/>
-      <c r="T49" s="120"/>
-      <c r="U49" s="34"/>
+      <c r="H49" s="98"/>
+      <c r="I49" s="99"/>
+      <c r="J49" s="100"/>
+      <c r="K49" s="101"/>
+      <c r="L49" s="118"/>
+      <c r="M49" s="116"/>
+      <c r="N49" s="119"/>
+      <c r="O49" s="120"/>
+      <c r="P49" s="29"/>
+      <c r="Q49" s="67"/>
+      <c r="R49" s="28"/>
+      <c r="S49" s="30"/>
+      <c r="T49" s="116"/>
+      <c r="U49" s="31"/>
     </row>
     <row r="50" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H50" s="26"/>
-      <c r="I50" s="67"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="28"/>
-      <c r="L50" s="122"/>
-      <c r="M50" s="67"/>
-      <c r="N50" s="123"/>
-      <c r="O50" s="124"/>
-      <c r="P50" s="32"/>
-      <c r="Q50" s="71"/>
-      <c r="R50" s="31"/>
-      <c r="S50" s="106"/>
-      <c r="T50" s="107"/>
-      <c r="U50" s="108"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="63"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="118"/>
+      <c r="M50" s="63"/>
+      <c r="N50" s="119"/>
+      <c r="O50" s="120"/>
+      <c r="P50" s="29"/>
+      <c r="Q50" s="67"/>
+      <c r="R50" s="28"/>
+      <c r="S50" s="102"/>
+      <c r="T50" s="103"/>
+      <c r="U50" s="104"/>
     </row>
     <row r="51" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H51" s="26"/>
-      <c r="I51" s="67"/>
-      <c r="J51" s="27"/>
-      <c r="K51" s="28"/>
-      <c r="L51" s="122"/>
-      <c r="M51" s="67"/>
-      <c r="N51" s="123"/>
-      <c r="O51" s="124"/>
-      <c r="P51" s="32"/>
-      <c r="Q51" s="71"/>
-      <c r="R51" s="31"/>
-      <c r="S51" s="106"/>
-      <c r="T51" s="107"/>
-      <c r="U51" s="108"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="63"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="118"/>
+      <c r="M51" s="63"/>
+      <c r="N51" s="119"/>
+      <c r="O51" s="120"/>
+      <c r="P51" s="29"/>
+      <c r="Q51" s="67"/>
+      <c r="R51" s="28"/>
+      <c r="S51" s="102"/>
+      <c r="T51" s="103"/>
+      <c r="U51" s="104"/>
     </row>
     <row r="52" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H52" s="109"/>
-      <c r="I52" s="110"/>
-      <c r="J52" s="111"/>
-      <c r="K52" s="28"/>
-      <c r="L52" s="122"/>
-      <c r="M52" s="120"/>
-      <c r="N52" s="123"/>
-      <c r="O52" s="124"/>
-      <c r="P52" s="32"/>
-      <c r="Q52" s="71"/>
-      <c r="R52" s="31"/>
-      <c r="S52" s="33"/>
-      <c r="T52" s="120"/>
-      <c r="U52" s="34"/>
+      <c r="H52" s="105"/>
+      <c r="I52" s="106"/>
+      <c r="J52" s="107"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="118"/>
+      <c r="M52" s="116"/>
+      <c r="N52" s="119"/>
+      <c r="O52" s="120"/>
+      <c r="P52" s="29"/>
+      <c r="Q52" s="67"/>
+      <c r="R52" s="28"/>
+      <c r="S52" s="30"/>
+      <c r="T52" s="116"/>
+      <c r="U52" s="31"/>
     </row>
     <row r="53" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H53" s="109"/>
-      <c r="I53" s="110"/>
-      <c r="J53" s="111"/>
-      <c r="K53" s="28"/>
-      <c r="L53" s="122"/>
-      <c r="M53" s="120"/>
-      <c r="N53" s="123"/>
-      <c r="O53" s="124"/>
-      <c r="P53" s="32"/>
-      <c r="Q53" s="71"/>
-      <c r="R53" s="31"/>
-      <c r="S53" s="33"/>
-      <c r="T53" s="120"/>
-      <c r="U53" s="34"/>
+      <c r="H53" s="105"/>
+      <c r="I53" s="106"/>
+      <c r="J53" s="107"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="118"/>
+      <c r="M53" s="116"/>
+      <c r="N53" s="119"/>
+      <c r="O53" s="120"/>
+      <c r="P53" s="29"/>
+      <c r="Q53" s="67"/>
+      <c r="R53" s="28"/>
+      <c r="S53" s="30"/>
+      <c r="T53" s="116"/>
+      <c r="U53" s="31"/>
     </row>
     <row r="54" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H54" s="26"/>
-      <c r="I54" s="120"/>
-      <c r="J54" s="27"/>
-      <c r="K54" s="28"/>
-      <c r="L54" s="29"/>
-      <c r="M54" s="120"/>
-      <c r="N54" s="30"/>
-      <c r="O54" s="31"/>
-      <c r="P54" s="32"/>
-      <c r="Q54" s="71"/>
-      <c r="R54" s="31"/>
-      <c r="S54" s="114"/>
-      <c r="T54" s="115"/>
-      <c r="U54" s="116"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="116"/>
+      <c r="J54" s="24"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="26"/>
+      <c r="M54" s="116"/>
+      <c r="N54" s="27"/>
+      <c r="O54" s="28"/>
+      <c r="P54" s="29"/>
+      <c r="Q54" s="67"/>
+      <c r="R54" s="28"/>
+      <c r="S54" s="110"/>
+      <c r="T54" s="111"/>
+      <c r="U54" s="112"/>
     </row>
     <row r="55" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H55" s="26"/>
-      <c r="I55" s="120"/>
-      <c r="J55" s="27"/>
-      <c r="K55" s="28"/>
-      <c r="L55" s="29"/>
-      <c r="M55" s="120"/>
-      <c r="N55" s="30"/>
-      <c r="O55" s="31"/>
-      <c r="P55" s="32"/>
-      <c r="Q55" s="71"/>
-      <c r="R55" s="31"/>
-      <c r="S55" s="114"/>
-      <c r="T55" s="115"/>
-      <c r="U55" s="116"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="116"/>
+      <c r="J55" s="24"/>
+      <c r="K55" s="25"/>
+      <c r="L55" s="26"/>
+      <c r="M55" s="116"/>
+      <c r="N55" s="27"/>
+      <c r="O55" s="28"/>
+      <c r="P55" s="29"/>
+      <c r="Q55" s="67"/>
+      <c r="R55" s="28"/>
+      <c r="S55" s="110"/>
+      <c r="T55" s="111"/>
+      <c r="U55" s="112"/>
     </row>
     <row r="56" spans="8:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H56" s="55"/>
-      <c r="I56" s="68"/>
-      <c r="J56" s="56"/>
-      <c r="K56" s="57"/>
-      <c r="L56" s="58"/>
-      <c r="M56" s="68"/>
-      <c r="N56" s="59"/>
-      <c r="O56" s="60"/>
-      <c r="P56" s="61"/>
-      <c r="Q56" s="72"/>
-      <c r="R56" s="60"/>
-      <c r="S56" s="62"/>
-      <c r="T56" s="68"/>
-      <c r="U56" s="63"/>
+      <c r="H56" s="51"/>
+      <c r="I56" s="64"/>
+      <c r="J56" s="52"/>
+      <c r="K56" s="53"/>
+      <c r="L56" s="54"/>
+      <c r="M56" s="64"/>
+      <c r="N56" s="55"/>
+      <c r="O56" s="56"/>
+      <c r="P56" s="57"/>
+      <c r="Q56" s="68"/>
+      <c r="R56" s="56"/>
+      <c r="S56" s="58"/>
+      <c r="T56" s="64"/>
+      <c r="U56" s="59"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
